--- a/SocScrapeContent/sheets/poly.xlsx
+++ b/SocScrapeContent/sheets/poly.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Pathways" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Clubs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Athletics" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,16 +38,52 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
+    <font>
+      <color rgb="00ffffff"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff8888"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088ff88"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008888ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088ffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff88ff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffff88"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -232,11 +270,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="00666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="00666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00666666"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -249,6 +317,21 @@
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="15" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -546,7 +629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F150"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,7 +640,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>BEACH</t>
+          <t>Poly ARTS</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -607,18 +690,19 @@
       </c>
       <c r="C3" s="7" t="inlineStr">
         <is>
-          <t>English 5-6 or 5-6 Honors AP English Language</t>
+          <t>English 5-6, 5-6 Honors or AP English Language</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>CSU Expository Reading and AP English Literature</t>
+          <t>CSU Expository Reading, Multicultural Literature or AP English Literature</t>
         </is>
       </c>
       <c r="E3" s="5" t="n"/>
       <c r="F3" s="8" t="inlineStr">
         <is>
-          <t>BEACH Academy which stands for BE_ACHievers, is one of the oldest Pathways at Poly High School. Its focus is on Technology and the STEM fields. The electives offered are in Architecture, Engineering and Computer Science. These classes have a curriculum from PLTW (Project Lead the Way). This is a non profit nationwide organization that its mission is to prepare students for the global economy by providing K-12 STEM programs through problem-based curriculum. Long Beach City College offers credit-by-exam for several of the LBCC engineering courses based on the grades and the end of test scores of some of the PLTW courses offered in our Pathway.</t>
+          <t>"Art helps us see connections and brings a more coherent meaning to our world." -Ernest Boyer 
+ Art education teaches students how to interpret, criticize, use visual information, and how to make choices based on it. Education learned through the arts encompasses possibly the greatest cross-disciplinary interaction. The work of art is mostly project-based, requiring both independent work and collaborative management skills for career success. Learning through the arts is the cultivation of twenty-first-century skill assets, such as flexibility, problem-solving abilities, and interpersonal skills. Learning the skills and knowledge for creating, refining, and sharing work through an arts-focused program promotes teamwork, communication, creative thinking, and decision-making abilities and traits that are necessary to function successfully in both school and career. Poly Arts (PArts) Pathway courses provides learners the opportunity to manipulate sight, sound, and motion. PArts is not focused solely on teaching art, but on learning through an art-infused experience. The PArts curriculum is interconnected through the arts, woven together to encourage students to be creative and use their imagination as much as possible across subject matter. Enrollment in the Poly Arts Pathway helps to affirm and develop creative abilities among students of all skill levels, without limiting it to those who aspire to be professional artists.</t>
         </is>
       </c>
     </row>
@@ -635,12 +719,12 @@
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>Algebra 2 or Pre-Calculus</t>
+          <t>Algebra 2 or Pre Calculus</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>Pre-Calculus or AP Statistics</t>
+          <t>Functions/Statistics/Trig or Intro to Applied Math</t>
         </is>
       </c>
       <c r="E4" s="5" t="n"/>
@@ -649,22 +733,22 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>Lab Earth</t>
+          <t>Lab Earth 1-2</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Biology</t>
+          <t>Biology 1-2</t>
         </is>
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>US History or AP US History</t>
+          <t>US History</t>
         </is>
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>Government/Economics or AP Government/Economics</t>
+          <t>Government/Economics</t>
         </is>
       </c>
       <c r="E5" s="5" t="n"/>
@@ -678,7 +762,7 @@
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>Modern World History or AP Modern World History</t>
+          <t>Modern World</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
@@ -688,7 +772,7 @@
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>Engineering Design &amp; Development (PLTW) or AP Computer Science A (PLTW)</t>
+          <t>Digital Media</t>
         </is>
       </c>
       <c r="E6" s="5" t="n"/>
@@ -697,7 +781,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>Introduction to Design 1- 2 (PLTW) or Computer Science Essentials (PLTW)</t>
+          <t>Digital Art &amp; Imaging 1-2 or Contemporary Video</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
@@ -726,7 +810,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Civil Engineering &amp; Architecture (PLTW) or AP Computer Science Principles (PLTW)</t>
+          <t>Advanced Contemporary Video</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
@@ -750,7 +834,7 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>Spanish 3-4, French 3-4, German 3-4 or Japanese 1-2</t>
+          <t>Spanish 3-4, French 3-4, German 3-4 or Japanese 3-4</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
@@ -830,15 +914,15 @@
       <c r="E15" s="5" t="n"/>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>"The BEACH Pathway challenges us to think 'outside the box' by the different creative classes like Introduction to Design. By having different computer program skills, it will open my path to new jobs." 
- - J. Esqueda, freshman</t>
+          <t>"Poly Arts has given me an opportunity to try different classes in the entertainment industry as electives. It helped me focus on a career path in the industry." 
+ - Josiah H, Class of 2019</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>AP Seminar and AP Research</t>
+          <t>AP Psychology, AP Seminar and AP Research</t>
         </is>
       </c>
       <c r="B16" s="5" t="n"/>
@@ -847,8 +931,8 @@
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="8" t="inlineStr">
         <is>
-          <t>"I think that taking engineering classes offered in the BEACH Pathway has helped me experience some of the tools used by engineers and other professions. I also think that this class helped prepare us for what to expect if we do decide to go and do something in the engineering field or something similar." 
- - E. Ruiz, freshman</t>
+          <t>"I liked that I was in classes with students who, like me, enjoy creating art. It is like a small arts family because we all have similar interests. It is a fun way to learn." 
+ - Valerie M, Class of 2019</t>
         </is>
       </c>
     </row>
@@ -884,8 +968,8 @@
       <c r="E18" s="5" t="n"/>
       <c r="F18" s="8" t="inlineStr">
         <is>
-          <t>"Academic Rigor, unbiased industry opportunities, and student driven innovations are core values of the BEACH Academy! These are the values that drive our teachers every dayin making sure that students are prepared to meet the demands of life, education, and industry. That's what I believe about our teachers and the overall goals of our academy." 
- - K. Coulter</t>
+          <t>"In the Poly Arts Pathway, students are able to learn through the lens of arts giving them a collaborative and creative opportunity to assimilate the curriculum from an arts perspective." 
+ - Linda Bon, Theater Arts Teacher</t>
         </is>
       </c>
     </row>
@@ -901,8 +985,8 @@
       <c r="E19" s="5" t="n"/>
       <c r="F19" s="8" t="inlineStr">
         <is>
-          <t>"Opportunities and exposure to industry careers by having related field trips and classes using softwares that are used in Architecture, Engineering and Computer Science. These classes are key to helping students make informed decisions about their future chosen careers." 
- - O. Echerri</t>
+          <t>"Poly Arts gives students a way to access curriculum through the perspective of a personal interest, the Arts. Students are provided with elective opportunities in 2D, 3D, and Digital Arts for exposure to industry careeropportunities, as well as learning experiences that mimic the entertainment industry standards." 
+ - Laura Stringer, Poly Arts Pathway Lead</t>
         </is>
       </c>
     </row>
@@ -969,7 +1053,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CIC</t>
+          <t>BEACH</t>
         </is>
       </c>
       <c r="B26" s="2" t="n"/>
@@ -1009,50 +1093,50 @@
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>English 1-2 Acc</t>
+          <t>English 1-2 or English 1-2 Acc</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>English 3-4 Acc</t>
+          <t>English 3-4 or English 3-4 Acc</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>AP English Language</t>
+          <t>English 5-6 or 5-6 Honors AP English Language</t>
         </is>
       </c>
       <c r="D28" s="7" t="inlineStr">
         <is>
-          <t>AP English Literature</t>
+          <t>CSU Expository Reading and AP English Literature</t>
         </is>
       </c>
       <c r="E28" s="5" t="n"/>
       <c r="F28" s="8" t="inlineStr">
         <is>
-          <t>The CIC (Center for International Curriculum) Academy is LBUSDs second-longest enduring magnet program, started in 1982. With a focus on global interconnectedness, CIC has a curriculum that uses the principles of Operation Supply Chain Management to prepare its students for a future that is not limited to a single career focus but rather focuses on both the opportunities available and the ways that all subjects and jobs interconnect to form the global economy. The program allows students, when possible, to select the rigor and intensity of the learning experience, so students can tailor their program of study, as much as is possible, toward their college and career plans. CIC offers Japanese and Chinese as its languages of study to help students break away from the mindset that a language is only learned for communication; CICs focus is culture and understanding, and students learn you have to understand your audience or your communication is meaningless. CIC offers the full range of 30+ APs to students interested in such rigor.</t>
+          <t>BEACH Academy which stands for BE_ACHievers, is one of the oldest Pathways at Poly High School. Its focus is on Technology and the STEM fields. The electives offered are in Architecture, Engineering and Computer Science. These classes have a curriculum from PLTW (Project Lead the Way). This is a non profit nationwide organization that its mission is to prepare students for the global economy by providing K-12 STEM programs through problem-based curriculum. Long Beach City College offers credit-by-exam for several of the LBCC engineering courses based on the grades and the end of test scores of some of the PLTW courses offered in our Pathway.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>Geometry Acc</t>
+          <t>Algebra I or Geometry</t>
         </is>
       </c>
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>Algebra 2 Acc</t>
+          <t>Geometry or Algebra 2</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Pre-Calculus Honors</t>
+          <t>Algebra 2 or Pre-Calculus</t>
         </is>
       </c>
       <c r="D29" s="7" t="inlineStr">
         <is>
-          <t>AP Statistics</t>
+          <t>Pre-Calculus or AP Statistics</t>
         </is>
       </c>
       <c r="E29" s="5" t="n"/>
@@ -1061,22 +1145,22 @@
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>Physical Science Acc or Physics 1-2</t>
+          <t>Lab Earth</t>
         </is>
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>Biology 1-2 Acc</t>
+          <t>Biology</t>
         </is>
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Chemistry Honors or AP Biology</t>
+          <t>US History or AP US History</t>
         </is>
       </c>
       <c r="D30" s="7" t="inlineStr">
         <is>
-          <t>AP Government/Economics</t>
+          <t>Government/Economics or AP Government/Economics</t>
         </is>
       </c>
       <c r="E30" s="5" t="n"/>
@@ -1085,22 +1169,22 @@
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>International Relations or AP Seminar</t>
+          <t>PE or Sport</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>AP Modern World History</t>
+          <t>Modern World History or AP Modern World History</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>AP US History</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D31" s="7" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Engineering Design &amp; Development (PLTW) or AP Computer Science A (PLTW)</t>
         </is>
       </c>
       <c r="E31" s="5" t="n"/>
@@ -1109,7 +1193,7 @@
     <row r="32">
       <c r="A32" s="7" t="inlineStr">
         <is>
-          <t>PE or Sport</t>
+          <t>Introduction to Design 1- 2 (PLTW) or Computer Science Essentials (PLTW)</t>
         </is>
       </c>
       <c r="B32" s="7" t="inlineStr">
@@ -1133,12 +1217,12 @@
     <row r="33">
       <c r="A33" s="7" t="inlineStr">
         <is>
-          <t>German 1-2, Japanese 1-2, or Chinese 1-2</t>
+          <t>Spanish 1-2, French 1-2, German 1-2 or Japanese 1-2</t>
         </is>
       </c>
       <c r="B33" s="7" t="inlineStr">
         <is>
-          <t>German 3-4, Japanese 3-4 or Chinese 3-4</t>
+          <t>Civil Engineering &amp; Architecture (PLTW) or AP Computer Science Principles (PLTW)</t>
         </is>
       </c>
       <c r="C33" s="7" t="inlineStr">
@@ -1162,7 +1246,7 @@
       </c>
       <c r="B34" s="7" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Spanish 3-4, French 3-4, German 3-4 or Japanese 1-2</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
@@ -1233,27 +1317,24 @@
     <row r="40">
       <c r="A40" s="7" t="inlineStr">
         <is>
-          <t>Anatomy/Physiology, AP Environmental Science or AP Physics</t>
+          <t>Chemistry, Forensic Science or Physics</t>
         </is>
       </c>
       <c r="B40" s="5" t="n"/>
-      <c r="C40" s="7">
-        <f>HYPERLINK("https://cdn.schoolloop.com/uimgcdn/aHR0cHM6Ly9wb2x5LXNvYy1sYnVzZC1jYS5zY2hvb2xsb29wLmNvbS91aW1nL2ZpbGUvMTU1MjYzODc3NTIwNy8xNTUyNjM4NzcyODg1LzU0OTkzMzMwMjQxODg3MzI4MC5tcDQ=")</f>
-        <v/>
-      </c>
+      <c r="C40" s="5" t="inlineStr"/>
       <c r="D40" s="5" t="n"/>
       <c r="E40" s="5" t="n"/>
       <c r="F40" s="8" t="inlineStr">
         <is>
-          <t>"CIC has challenged me academically while also encouraging me to have enough time for extracurriculars like athletics and music. In CIC, you will face rigorous classes but it will promote time management to prepare you for the future." 
- - M. Angeo, class of 2020</t>
+          <t>"The BEACH Pathway challenges us to think 'outside the box' by the different creative classes like Introduction to Design. By having different computer program skills, it will open my path to new jobs." 
+ - J. Esqueda, freshman</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="7" t="inlineStr">
         <is>
-          <t>Journalism, AP Psychology, AP Seminar and AP Research</t>
+          <t>AP Seminar and AP Research</t>
         </is>
       </c>
       <c r="B41" s="5" t="n"/>
@@ -1262,15 +1343,15 @@
       <c r="E41" s="5" t="n"/>
       <c r="F41" s="8" t="inlineStr">
         <is>
-          <t>"CIC is a place where students have rigorous, yet unique classes that are unseen in other schools. These classes have stress-free environments where students can succeed." 
- - E. Dwinell, class of 2019</t>
+          <t>"I think that taking engineering classes offered in the BEACH Pathway has helped me experience some of the tools used by engineers and other professions. I also think that this class helped prepare us for what to expect if we do decide to go and do something in the engineering field or something similar." 
+ - E. Ruiz, freshman</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="inlineStr">
         <is>
-          <t>Chinese 5-6 or AP Chinese</t>
+          <t>Spanish 5-6 or AP Spanish</t>
         </is>
       </c>
       <c r="B42" s="5" t="n"/>
@@ -1290,106 +1371,70 @@
     <row r="43">
       <c r="A43" s="7" t="inlineStr">
         <is>
-          <t>German 5-6 or AP German</t>
+          <t>French 5-6 or AP French</t>
         </is>
       </c>
       <c r="B43" s="5" t="n"/>
-      <c r="C43" s="7" t="inlineStr">
-        <is>
-          <t>6th/7th Academic GPA</t>
-        </is>
-      </c>
-      <c r="D43" s="7" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
+      <c r="C43" s="5" t="n"/>
+      <c r="D43" s="5" t="n"/>
       <c r="E43" s="5" t="n"/>
       <c r="F43" s="8" t="inlineStr">
         <is>
-          <t>"Not only is CIC an academically rigorous academy but the teachers really take the time to get to know the students, inside and outside the classroom. CIC is like a big familywhere we support one another. Students see their teachers at their sports games, music concerts, dances, and other school events. This allows the teachers to see the whole student, instead of just the glimpse we see in our classrooms." 
- - S. Watson, Japanese teacher</t>
+          <t>"Academic Rigor, unbiased industry opportunities, and student driven innovations are core values of the BEACH Academy! These are the values that drive our teachers every dayin making sure that students are prepared to meet the demands of life, education, and industry. That's what I believe about our teachers and the overall goals of our academy." 
+ - K. Coulter</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="inlineStr">
         <is>
-          <t>Japanese 5-6 or AP Japanese</t>
+          <t>German 5-6 or AP German</t>
         </is>
       </c>
       <c r="B44" s="5" t="n"/>
-      <c r="C44" s="7" t="inlineStr">
-        <is>
-          <t>Min. ELA SBAC Score</t>
-        </is>
-      </c>
-      <c r="D44" s="7" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="C44" s="5" t="n"/>
+      <c r="D44" s="5" t="n"/>
       <c r="E44" s="5" t="n"/>
       <c r="F44" s="8" t="inlineStr">
         <is>
-          <t>"One of the best parts of being in the CIC program is that it allows you to challenge yourself academically, but also gives you the flexibilityto pursue other interests—whether it is in music, sports, drama, robotics, Japanese, or even student government. Our students are part of nearly every extracurricular activity on campus!" 
- - C. Tram, AP US History/Honors US History teacher</t>
+          <t>"Opportunities and exposure to industry careers by having related field trips and classes using softwares that are used in Architecture, Engineering and Computer Science. These classes are key to helping students make informed decisions about their future chosen careers." 
+ - O. Echerri</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="inlineStr">
         <is>
-          <t>Drawing and Painting or Graphic Design</t>
+          <t>Japanese 5-6 or AP Japanese</t>
         </is>
       </c>
       <c r="B45" s="5" t="n"/>
-      <c r="C45" s="7" t="inlineStr">
-        <is>
-          <t>Math Level</t>
-        </is>
-      </c>
-      <c r="D45" s="7" t="inlineStr">
-        <is>
-          <t>---</t>
-        </is>
-      </c>
+      <c r="C45" s="5" t="n"/>
+      <c r="D45" s="5" t="n"/>
       <c r="E45" s="5" t="n"/>
       <c r="F45" s="9" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="7" t="inlineStr">
         <is>
-          <t>Band, Theater, Dance, Orchestra, Chorus</t>
+          <t>Drawing and Painting</t>
         </is>
       </c>
       <c r="B46" s="5" t="n"/>
-      <c r="C46" s="7" t="inlineStr">
-        <is>
-          <t>Resident Priority</t>
-        </is>
-      </c>
-      <c r="D46" s="7" t="inlineStr">
-        <is>
-          <t>Residential</t>
-        </is>
-      </c>
+      <c r="C46" s="5" t="n"/>
+      <c r="D46" s="5" t="n"/>
       <c r="E46" s="5" t="n"/>
       <c r="F46" s="9" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="n"/>
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>Band, Theater, Dance, Orchestra, Chorus</t>
+        </is>
+      </c>
       <c r="B47" s="5" t="n"/>
-      <c r="C47" s="7" t="inlineStr">
-        <is>
-          <t>Final Selection Method</t>
-        </is>
-      </c>
-      <c r="D47" s="7" t="inlineStr">
-        <is>
-          <t>High to low GPA</t>
-        </is>
-      </c>
+      <c r="C47" s="5" t="n"/>
+      <c r="D47" s="5" t="n"/>
       <c r="E47" s="5" t="n"/>
       <c r="F47" s="9" t="n"/>
     </row>
@@ -1420,7 +1465,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>PACE</t>
+          <t>CIC</t>
         </is>
       </c>
       <c r="B51" s="2" t="n"/>
@@ -1465,7 +1510,7 @@
       </c>
       <c r="B53" s="7" t="inlineStr">
         <is>
-          <t>English 5-6 Honors</t>
+          <t>English 3-4 Acc</t>
         </is>
       </c>
       <c r="C53" s="7" t="inlineStr">
@@ -1481,7 +1526,7 @@
       <c r="E53" s="5" t="n"/>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>PACE students develop the skills and mindset to succeed at the nation's most prestigious colleges as they prepare to assume their positions as global citizens and leaders. Our community works hard to make sure that students are supported in their growth from middle school to college readiness. When PACE students get to college, the academic, personal, and organizational skills they learned in PACE set them apart. PACE also encourages students to forge their own path, allowing them to explore a variety of electives in the 11th and 12th grades. PACE encourages all students to tailor their schedules in the upper grades to reflect their own passions while maintaining a strength of schedule that will give them the most opportunity in the college search process. Additionally we support a variety of independent projects that our students often undertake -- as a part of another organization or just because they are invested in a cause -- which often set them apart from their peers. PACE students also have access to the full range of Long Beach Poly experiences and the majority of our students participate in sports, music, clubs, and various community organizations. Admission to PACE is based upon students’ performance in middle school classes (GPA) and the state test scores from 7th grade.</t>
+          <t>The CIC (Center for International Curriculum) Academy is LBUSDs second-longest enduring magnet program, started in 1982. With a focus on global interconnectedness, CIC has a curriculum that uses the principles of Operation Supply Chain Management to prepare its students for a future that is not limited to a single career focus but rather focuses on both the opportunities available and the ways that all subjects and jobs interconnect to form the global economy. The program allows students, when possible, to select the rigor and intensity of the learning experience, so students can tailor their program of study, as much as is possible, toward their college and career plans. CIC offers Japanese and Chinese as its languages of study to help students break away from the mindset that a language is only learned for communication; CICs focus is culture and understanding, and students learn you have to understand your audience or your communication is meaningless. CIC offers the full range of 30+ APs to students interested in such rigor.</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1538,7 @@
       </c>
       <c r="B54" s="7" t="inlineStr">
         <is>
-          <t>Algebra 2/Trig Accelerated</t>
+          <t>Algebra 2 Acc</t>
         </is>
       </c>
       <c r="C54" s="7" t="inlineStr">
@@ -1503,7 +1548,7 @@
       </c>
       <c r="D54" s="7" t="inlineStr">
         <is>
-          <t>AP Calculus or AP Statistics</t>
+          <t>AP Statistics</t>
         </is>
       </c>
       <c r="E54" s="5" t="n"/>
@@ -1512,7 +1557,7 @@
     <row r="55">
       <c r="A55" s="7" t="inlineStr">
         <is>
-          <t>AP Environmental Science</t>
+          <t>Physical Science Acc or Physics 1-2</t>
         </is>
       </c>
       <c r="B55" s="7" t="inlineStr">
@@ -1527,7 +1572,7 @@
       </c>
       <c r="D55" s="7" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>AP Government/Economics</t>
         </is>
       </c>
       <c r="E55" s="5" t="n"/>
@@ -1536,17 +1581,17 @@
     <row r="56">
       <c r="A56" s="7" t="inlineStr">
         <is>
-          <t>US Government/Economics</t>
+          <t>International Relations or AP Seminar</t>
         </is>
       </c>
       <c r="B56" s="7" t="inlineStr">
         <is>
+          <t>AP Modern World History</t>
+        </is>
+      </c>
+      <c r="C56" s="7" t="inlineStr">
+        <is>
           <t>AP US History</t>
-        </is>
-      </c>
-      <c r="C56" s="7" t="inlineStr">
-        <is>
-          <t>AP European History</t>
         </is>
       </c>
       <c r="D56" s="7" t="inlineStr">
@@ -1584,12 +1629,12 @@
     <row r="58">
       <c r="A58" s="7" t="inlineStr">
         <is>
-          <t>Spanish 1-2, French 1-2 German 1-2, Japanese 1-2, or Chinese 1-2</t>
+          <t>German 1-2, Japanese 1-2, or Chinese 1-2</t>
         </is>
       </c>
       <c r="B58" s="7" t="inlineStr">
         <is>
-          <t>Spanish 3-4, French 3-4, German 3-4, Japanese 3-4 or Chinese 3-4</t>
+          <t>German 3-4, Japanese 3-4 or Chinese 3-4</t>
         </is>
       </c>
       <c r="C58" s="7" t="inlineStr">
@@ -1684,24 +1729,27 @@
     <row r="65">
       <c r="A65" s="7" t="inlineStr">
         <is>
-          <t>AP Biology, AP Chemistry or AP Physics</t>
+          <t>Anatomy/Physiology, AP Environmental Science or AP Physics</t>
         </is>
       </c>
       <c r="B65" s="5" t="n"/>
-      <c r="C65" s="5" t="inlineStr"/>
+      <c r="C65" s="7">
+        <f>HYPERLINK("https://cdn.schoolloop.com/uimgcdn/aHR0cHM6Ly9wb2x5LXNvYy1sYnVzZC1jYS5zY2hvb2xsb29wLmNvbS91aW1nL2ZpbGUvMTU1MjYzODc3NTIwNy8xNTUyNjM4NzcyODg1LzU0OTkzMzMwMjQxODg3MzI4MC5tcDQ=")</f>
+        <v/>
+      </c>
       <c r="D65" s="5" t="n"/>
       <c r="E65" s="5" t="n"/>
       <c r="F65" s="8" t="inlineStr">
         <is>
-          <t>"When I think of all the late nights spent studying for exams or struggling to piece together chemistry concepts, I don’t see it as time I have lostas a PACE student. Instead, I reflect upon the foundational experiences I know have fostered personal growth. As I move towards higher education, I am reminded that my accomplishments during this time mean nothing if I do not carry them forward — harboring both an uncertainty for my own future, yet an overwhelming eagerness to see what I may effectuate. My experience in PACE is not defined by striving towards academic excellence; rather, it is the fundamental perseverance and innate desire to explore, to learn, that have truly shaped my character." 
- - L. Chou, Class of 2019</t>
+          <t>"CIC has challenged me academically while also encouraging me to have enough time for extracurriculars like athletics and music. In CIC, you will face rigorous classes but it will promote time management to prepare you for the future." 
+ - M. Angeo, class of 2020</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="inlineStr">
         <is>
-          <t>AP Macroeconomics, AP Microeconomics, Journalism, AP Psychology, AP Seminar and AP Research</t>
+          <t>Journalism, AP Psychology, AP Seminar and AP Research</t>
         </is>
       </c>
       <c r="B66" s="5" t="n"/>
@@ -1710,8 +1758,8 @@
       <c r="E66" s="5" t="n"/>
       <c r="F66" s="8" t="inlineStr">
         <is>
-          <t>"PACE gives independence to pursue a passion but continuously guides you on a structured course outline to keep yourself competitive and prepared forcollege. PACE gave me the confidence and feeling of intelligence and community that I was never given at my middle school. Through group activities and projects with classmates that I have grown to be friends with, I have grown my confidence in myself in ways that could not be done without the rigorous program of PACE. This confidence led me to lead employees at a large corporation and to lead myself into earning my Eagle Scout award. Without completing the hard work necessary to be successful in the PACE curriculum, I would not have the drive that I have now to be a successful leader in the world." 
- - S. Kennebeck, Class of 2019</t>
+          <t>"CIC is a place where students have rigorous, yet unique classes that are unseen in other schools. These classes have stress-free environments where students can succeed." 
+ - E. Dwinell, class of 2019</t>
         </is>
       </c>
     </row>
@@ -1749,14 +1797,14 @@
       </c>
       <c r="D68" s="7" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="E68" s="5" t="n"/>
       <c r="F68" s="8" t="inlineStr">
         <is>
-          <t>"PACE freshmen work extensively on writing and reading beyond the text, of course, but we also teach them about compassion, the human psyche, andsometimes social justice. Ultimately, I believe we teach kids about time management, team work, self reflection, and an inherent drive to succeed. These are mostly soft skills but they are absolutely necessary not only in the workplace but in everyday life." 
- - Ms. Floto, 9th Grade English</t>
+          <t>"Not only is CIC an academically rigorous academy but the teachers really take the time to get to know the students, inside and outside the classroom. CIC is like a big familywhere we support one another. Students see their teachers at their sports games, music concerts, dances, and other school events. This allows the teachers to see the whole student, instead of just the glimpse we see in our classrooms." 
+ - S. Watson, Japanese teacher</t>
         </is>
       </c>
     </row>
@@ -1774,21 +1822,21 @@
       </c>
       <c r="D69" s="7" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>---</t>
         </is>
       </c>
       <c r="E69" s="5" t="n"/>
       <c r="F69" s="8" t="inlineStr">
         <is>
-          <t>"The PACE program embodies academic excellence, intellectual curiosity, and personal dedication to growth, improvement, and empowerment. Its rigorous curriculum challenges students to move beyond the classroom walls and explore new ideas, generate innovative strategies or solutions, and investigate prior claims to determine veracity and applicability within contemporary settings. PACE aims to prepare students for high-stakes careers by offering unique internships, partnerships with biomedical and engineering programs, and international exposure to arts, culture, and literacy." 
- - Ms. Schol, 10th Grade English</t>
+          <t>"One of the best parts of being in the CIC program is that it allows you to challenge yourself academically, but also gives you the flexibilityto pursue other interests—whether it is in music, sports, drama, robotics, Japanese, or even student government. Our students are part of nearly every extracurricular activity on campus!" 
+ - C. Tram, AP US History/Honors US History teacher</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="inlineStr">
         <is>
-          <t>French 5-6 or AP French</t>
+          <t>Drawing and Painting or Graphic Design</t>
         </is>
       </c>
       <c r="B70" s="5" t="n"/>
@@ -1799,7 +1847,7 @@
       </c>
       <c r="D70" s="7" t="inlineStr">
         <is>
-          <t>Algebra</t>
+          <t>---</t>
         </is>
       </c>
       <c r="E70" s="5" t="n"/>
@@ -1808,7 +1856,7 @@
     <row r="71">
       <c r="A71" s="7" t="inlineStr">
         <is>
-          <t>Spanish 5-6 or AP Spanish</t>
+          <t>Band, Theater, Dance, Orchestra, Chorus</t>
         </is>
       </c>
       <c r="B71" s="5" t="n"/>
@@ -1819,18 +1867,14 @@
       </c>
       <c r="D71" s="7" t="inlineStr">
         <is>
-          <t>Equal</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="E71" s="5" t="n"/>
       <c r="F71" s="9" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="7" t="inlineStr">
-        <is>
-          <t>Intro to Design or Graphic Design</t>
-        </is>
-      </c>
+      <c r="A72" s="5" t="n"/>
       <c r="B72" s="5" t="n"/>
       <c r="C72" s="7" t="inlineStr">
         <is>
@@ -1839,18 +1883,14 @@
       </c>
       <c r="D72" s="7" t="inlineStr">
         <is>
-          <t>High to Low GPA</t>
+          <t>High to low GPA</t>
         </is>
       </c>
       <c r="E72" s="5" t="n"/>
       <c r="F72" s="9" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="7" t="inlineStr">
-        <is>
-          <t>Band, Theater, Dance, Orchestra, Chorus</t>
-        </is>
-      </c>
+      <c r="A73" s="5" t="n"/>
       <c r="B73" s="5" t="n"/>
       <c r="C73" s="5" t="n"/>
       <c r="D73" s="5" t="n"/>
@@ -1876,7 +1916,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>PACRIM</t>
+          <t>JUSTICE</t>
         </is>
       </c>
       <c r="B76" s="2" t="n"/>
@@ -1926,18 +1966,18 @@
       </c>
       <c r="C78" s="7" t="inlineStr">
         <is>
-          <t>English 5-6, or English 5-6 Honors</t>
+          <t>English 5-6 or 5-6 Honors</t>
         </is>
       </c>
       <c r="D78" s="7" t="inlineStr">
         <is>
-          <t>CSU Expository Reading and Writing</t>
+          <t>CSU Expository Reading, Multicultural Literature and AP English Literature</t>
         </is>
       </c>
       <c r="E78" s="5" t="n"/>
       <c r="F78" s="8" t="inlineStr">
         <is>
-          <t>The Pacific Rim Academy, founded in 1989, is a California Partnership Academy and recipient of the state's Distinguished Academy award in 2018. With a focus on business, marketing, international trade, and the hospitality industry, Pac Rim offers its students an alternative to the traditional academic curriculum, providing real-life opportunities (mentorships, internships, simulated competitions, visits to industry, and educational and career-related field trips) in place of the accelerated/AP curriculum that many programs offer. With an industry advisory board that helps direct the curriculum and offerings each year, Pac Rim empowers students. The Pac Rim academy is a smaller academy, admitting only 60-70 students to better focus the academy's resources.</t>
+          <t>JUSTICE Pathway teachers are committed to developing critical thinkers through a commitment to public service supported by collaborative classroom experiences and opportunities to impact the community as a whole. JUSTICE students will be active citizens of local and global communities working to improve our society and its people. Students in JUSTICE are interested in making communities better and safer for everyone, and relevant careers include law enforcement (police, sheriff, security), legal services (lawyer, paralegal, forensic scientist), and public service (government or non-profit). JUSTICE classes prepare students for the critical thinking and communication skills necessary to be successful in these jobs.</t>
         </is>
       </c>
     </row>
@@ -1949,17 +1989,17 @@
       </c>
       <c r="B79" s="7" t="inlineStr">
         <is>
-          <t>Geometry or Algebra 2</t>
+          <t>Geometry or Algebra 2</t>
         </is>
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Algebra 2 or Pre-calculus</t>
+          <t>Algebra 2 or Pre-Calculus</t>
         </is>
       </c>
       <c r="D79" s="7" t="inlineStr">
         <is>
-          <t>Functions/Statistics/Trig</t>
+          <t>Functions/Statistics/Trig or Computer Science</t>
         </is>
       </c>
       <c r="E79" s="5" t="n"/>
@@ -1968,17 +2008,17 @@
     <row r="80">
       <c r="A80" s="7" t="inlineStr">
         <is>
+          <t>Environmental Geoscience</t>
+        </is>
+      </c>
+      <c r="B80" s="7" t="inlineStr">
+        <is>
           <t>Biology</t>
         </is>
       </c>
-      <c r="B80" s="7" t="inlineStr">
-        <is>
-          <t>Lab Earth</t>
-        </is>
-      </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Physics</t>
+          <t>Chemistry or Physics 1-2</t>
         </is>
       </c>
       <c r="D80" s="7" t="inlineStr">
@@ -1992,22 +2032,22 @@
     <row r="81">
       <c r="A81" s="7" t="inlineStr">
         <is>
-          <t>Graphic Design and Printmaking 1-2</t>
+          <t>Intro to Social Justice</t>
         </is>
       </c>
       <c r="B81" s="7" t="inlineStr">
         <is>
-          <t>Modern World History</t>
+          <t>Modern World History, International Negotiation, or AP World History</t>
         </is>
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>US History and AP Psychology</t>
+          <t>US History or AP US History</t>
         </is>
       </c>
       <c r="D81" s="7" t="inlineStr">
         <is>
-          <t>Senior Capstone Business</t>
+          <t>Graphic Design and Printmaking 5-6</t>
         </is>
       </c>
       <c r="E81" s="5" t="n"/>
@@ -2026,7 +2066,7 @@
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>International Business</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D82" s="7" t="inlineStr">
@@ -2040,12 +2080,12 @@
     <row r="83">
       <c r="A83" s="7" t="inlineStr">
         <is>
-          <t>Introduction to Entrepreneurship</t>
+          <t>Graphic Design and Printmaking 1-2</t>
         </is>
       </c>
       <c r="B83" s="7" t="inlineStr">
         <is>
-          <t>International Marketing</t>
+          <t>Graphic Design and Printmaking 3-4</t>
         </is>
       </c>
       <c r="C83" s="7" t="inlineStr">
@@ -2140,7 +2180,7 @@
     <row r="90">
       <c r="A90" s="7" t="inlineStr">
         <is>
-          <t>Spanish 5-6 or AP Spanish</t>
+          <t>Chemistry, Forensic Science or Physics</t>
         </is>
       </c>
       <c r="B90" s="5" t="n"/>
@@ -2149,15 +2189,15 @@
       <c r="E90" s="5" t="n"/>
       <c r="F90" s="8" t="inlineStr">
         <is>
-          <t>"The Pac Rim Academy is truly special. You take business oriented classes and take part in many unique experiences. You become a family with the rest of the small academy and there’s nothing else like it." 
- - U. Godoy, Class of 2019</t>
+          <t>"I definitely felt it was a good fit for me. As every year passed at Poly, I grew to be more comfortable but also explored, trying lots of activities and classes. I wish I had done even more." 
+ - Liz Rico, JUSTICE Class of 2019</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="inlineStr">
         <is>
-          <t>French 5-6 or AP French</t>
+          <t>AP Seminar and AP Research</t>
         </is>
       </c>
       <c r="B91" s="5" t="n"/>
@@ -2166,15 +2206,15 @@
       <c r="E91" s="5" t="n"/>
       <c r="F91" s="8" t="inlineStr">
         <is>
-          <t>"Pac Rim is the type of program that you would want to be in at Poly.  Not only does it teach you about the business world, but you also become a family in the end." 
- - I. Giles, Class of 2019</t>
+          <t>"I did tree plantings with JUSTICE because I wanted to help out, and I wanted to meet people that also wanted to help." 
+ - Ingrid Mateo, JUSTICE Class of 2018</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="inlineStr">
         <is>
-          <t>German 5-6 or AP German</t>
+          <t>Spanish 5-6 or AP Spanish</t>
         </is>
       </c>
       <c r="B92" s="5" t="n"/>
@@ -2194,7 +2234,7 @@
     <row r="93">
       <c r="A93" s="7" t="inlineStr">
         <is>
-          <t>Japanese 5-6 or AP Japanese</t>
+          <t>French 5-6 or AP French</t>
         </is>
       </c>
       <c r="B93" s="5" t="n"/>
@@ -2203,15 +2243,15 @@
       <c r="E93" s="5" t="n"/>
       <c r="F93" s="8" t="inlineStr">
         <is>
-          <t>"Our Pac Rim Academy is the hidden gem at Poly! We may be small, but we are mighty as we provide more real world, hands-on business experience to our students than any other academy." 
- - L. Saito-Waddles, English teacher</t>
+          <t>"In an age of technology and a digital society, human interactions will be more important than ever. Ethical and social skills will provide Poly JUSTICE studentsthe tools to make a difference in both the workplace and our community. Our graduates truly GO FORTH and SERVE." 
+ - Kalani Caldwell, PE Teacher and Swim Coach</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="inlineStr">
         <is>
-          <t>Drawing and Painting</t>
+          <t>German 5-6 or AP German</t>
         </is>
       </c>
       <c r="B94" s="5" t="n"/>
@@ -2220,15 +2260,15 @@
       <c r="E94" s="5" t="n"/>
       <c r="F94" s="8" t="inlineStr">
         <is>
-          <t>"Entering its fourth decade, the Pacific Rim Academy is thriving on a strong philosophy of practical applications, a solid teaching base, and industry partnerswho participate in determining the direction of the academy and its curriculum to insure relevance in the real world." 
- - H. Pieczenik, international Marketing/Modern World History teacher</t>
+          <t>"The students at Poly are amazing and that's the reason I love teaching here." 
+ - Daryl Holmlund, JUSTICE Lead Teacher, English and Journalism Teacher</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="inlineStr">
         <is>
-          <t>Band, Theater, Dance, Orchestra, Chorus</t>
+          <t>Japanese 5-6 or AP Japanese</t>
         </is>
       </c>
       <c r="B95" s="5" t="n"/>
@@ -2238,7 +2278,11 @@
       <c r="F95" s="9" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="n"/>
+      <c r="A96" s="7" t="inlineStr">
+        <is>
+          <t>Drawing and Painting</t>
+        </is>
+      </c>
       <c r="B96" s="5" t="n"/>
       <c r="C96" s="5" t="n"/>
       <c r="D96" s="5" t="n"/>
@@ -2246,7 +2290,11 @@
       <c r="F96" s="9" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="n"/>
+      <c r="A97" s="7" t="inlineStr">
+        <is>
+          <t>Band, Theater, Dance, Orchestra, Chorus</t>
+        </is>
+      </c>
       <c r="B97" s="5" t="n"/>
       <c r="C97" s="5" t="n"/>
       <c r="D97" s="5" t="n"/>
@@ -2280,7 +2328,7 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Poly ARTS</t>
+          <t>MEDS</t>
         </is>
       </c>
       <c r="B101" s="2" t="n"/>
@@ -2341,9 +2389,7 @@
       <c r="E103" s="5" t="n"/>
       <c r="F103" s="8" t="inlineStr">
         <is>
-          <t>"Art helps us see connections and brings a more coherent meaning to our world." Ernest Boyer. Art education teaches students how to interpret, criticize, use visual information, and how to make choices based on it. Education learned through the arts encompasses possibly the greatest cross-disciplinary interaction. The work of art is mostly project-based, requiring both independent work and collaborative management skills for career success. Learning through the arts is the cultivation of twenty-first-century skill assets, such as flexibility, problem-solving abilities, and interpersonal skills. Learning the skills and knowledge for creating, refining, and sharing work through an arts-focused program promotes teamwork, communication, creative thinking, and decision-making abilities and traits that are necessary to function successfully in both school and career. Poly Arts (PArts) Pathway courses provides learners the opportunity to manipulate sight, sound, and motion. PArts is not focused solely on teaching art, but on learning through an art-infused experience. The PArts curriculum is interconnected through the arts, woven together to encourage students to be creative and use their imagination as much as possible across subject matter. Enrollment in the Poly Arts Pathway helps to affirm and develop creative abilities among students of all skill levels, without limiting it to those who aspire to be professional artists. 
- ENTRANCE CRITERIA 
- No entrance criteria.</t>
+          <t>Poly's Medical Academy is a binary pathway that prepares students for professional, cutting-edge careers in the health and medical fields related to patient care (physical AND mental/behavioral) AND Health Information Technology (HIT).</t>
         </is>
       </c>
     </row>
@@ -2360,12 +2406,12 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>Algebra 2 or Pre Calculus</t>
+          <t>Algebra 2 or Pre-Calculus</t>
         </is>
       </c>
       <c r="D104" s="7" t="inlineStr">
         <is>
-          <t>Functions/Statistics/Trig or Intro to Applied Math</t>
+          <t>Functions, Pre-Calculus or Intro to Applied Math</t>
         </is>
       </c>
       <c r="E104" s="5" t="n"/>
@@ -2374,22 +2420,22 @@
     <row r="105">
       <c r="A105" s="7" t="inlineStr">
         <is>
-          <t>Lab Earth 1-2</t>
+          <t>Medical Biology 1-2</t>
         </is>
       </c>
       <c r="B105" s="7" t="inlineStr">
         <is>
-          <t>Biology 1-2</t>
+          <t>Medical Chemistry 1-2</t>
         </is>
       </c>
       <c r="C105" s="7" t="inlineStr">
         <is>
-          <t>US History</t>
+          <t>Anatomy/Physiology Honors</t>
         </is>
       </c>
       <c r="D105" s="7" t="inlineStr">
         <is>
-          <t>Government/Economics</t>
+          <t>Government/Economics or AP Government/Economics</t>
         </is>
       </c>
       <c r="E105" s="5" t="n"/>
@@ -2403,17 +2449,17 @@
       </c>
       <c r="B106" s="7" t="inlineStr">
         <is>
-          <t>Modern World</t>
+          <t>Modern World History or AP Modern World History</t>
         </is>
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
+          <t>US History or AP US History</t>
+        </is>
+      </c>
+      <c r="D106" s="7" t="inlineStr">
+        <is>
           <t>Elective</t>
-        </is>
-      </c>
-      <c r="D106" s="7" t="inlineStr">
-        <is>
-          <t>Digital Media</t>
         </is>
       </c>
       <c r="E106" s="5" t="n"/>
@@ -2422,7 +2468,7 @@
     <row r="107">
       <c r="A107" s="7" t="inlineStr">
         <is>
-          <t>Digital Art &amp; Imaging 1-2 or Contemporary Video</t>
+          <t>Health and Career Exploration</t>
         </is>
       </c>
       <c r="B107" s="7" t="inlineStr">
@@ -2432,7 +2478,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Applied Medical Occupations or Healthcare Analysis</t>
         </is>
       </c>
       <c r="D107" s="7" t="inlineStr">
@@ -2451,7 +2497,7 @@
       </c>
       <c r="B108" s="7" t="inlineStr">
         <is>
-          <t>Advanced Contemporary Video</t>
+          <t>Business Technology for Medical Occupations</t>
         </is>
       </c>
       <c r="C108" s="7" t="inlineStr">
@@ -2555,15 +2601,15 @@
       <c r="E115" s="5" t="n"/>
       <c r="F115" s="8" t="inlineStr">
         <is>
-          <t>"Poly Arts has given me an opportunity to try different classes in the entertainment industry as electives. It helped me focus on a career path in the industry." 
- - Josiah H, Class of 2019</t>
+          <t>"When I joined the MEDS pathway I was struggling in school, MEDS gave me a direction. I graduate this June and I take a test to become a Certified Nursing Assistant." 
+ - D. Scipio</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="7" t="inlineStr">
         <is>
-          <t>AP Psychology, AP Seminar and AP Research</t>
+          <t>AP Seminar and AP Research</t>
         </is>
       </c>
       <c r="B116" s="5" t="n"/>
@@ -2572,8 +2618,8 @@
       <c r="E116" s="5" t="n"/>
       <c r="F116" s="8" t="inlineStr">
         <is>
-          <t>"I liked that I was in classes with students who, like me, enjoy creating art. It is like a small arts family because we all have similar interests. It is a fun way to learn." 
- - Valerie M, Class of 2019</t>
+          <t>"The MEDS pathway has become my friends and family. We work together and play together. We also have the best tools on campus; the Apollo and Anatomage Table made learning fun." 
+ - B. Rodriguez</t>
         </is>
       </c>
     </row>
@@ -2609,8 +2655,8 @@
       <c r="E118" s="5" t="n"/>
       <c r="F118" s="8" t="inlineStr">
         <is>
-          <t>"In the Poly Arts Pathway, students are able to learn through the lens of arts giving them a collaborative and creative opportunity to assimilate the curriculum from an arts perspective." 
- - Linda Bon, Theater Arts Teacher</t>
+          <t>"Comprised of students wishing to pursue a career in the medical and para medical fields, encouraged and enlightened by teachers sharing that same passion, andsupported by an administration and community leaders lighting their way, the MEDS academy proudly demonstrates the future of our healthcare system." 
+ - E. Sanches</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2672,8 @@
       <c r="E119" s="5" t="n"/>
       <c r="F119" s="8" t="inlineStr">
         <is>
-          <t>"Poly Arts gives students a way to access curriculum through the perspective of a personal interest, the Arts. Students are provided with elective opportunities in 2D, 3D, and Digital Arts for exposure to industry careeropportunities, as well as learning experiences that mimic the entertainment industry standards."</t>
+          <t>"The MEDS pathway allows students the opportunity to become introduced to careers in the medical field, and exposes them to terminology and skills that will be usefulin their future career choices. Through their course of study, students develop a better understanding of mental and physical health that will be needed in todays very competitive medical careers." 
+ - J. Napalan</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2740,7 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>MEDS</t>
+          <t>PACE</t>
         </is>
       </c>
       <c r="B126" s="2" t="n"/>
@@ -2733,50 +2780,50 @@
     <row r="128">
       <c r="A128" s="7" t="inlineStr">
         <is>
-          <t>English 1-2 or English 1-2 Acc</t>
+          <t>English 1-2 Acc</t>
         </is>
       </c>
       <c r="B128" s="7" t="inlineStr">
         <is>
-          <t>English 3-4 or English 3-4 Acc</t>
+          <t>English 5-6 Honors</t>
         </is>
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>English 5-6, 5-6 Honors or AP English Language</t>
+          <t>AP English Language</t>
         </is>
       </c>
       <c r="D128" s="7" t="inlineStr">
         <is>
-          <t>CSU Expository Reading, Multicultural Literature or AP English Literature</t>
+          <t>AP English Literature</t>
         </is>
       </c>
       <c r="E128" s="5" t="n"/>
       <c r="F128" s="8" t="inlineStr">
         <is>
-          <t>Poly's Medical Academy is a binary pathway that prepares students for professional, cutting-edge careers in the health and medical fields related to patient care (physical AND mental/behavioral) AND Health Information Technology (HIT).</t>
+          <t>PACE students develop the skills and mindset to succeed at the nation's most prestigious colleges as they prepare to assume their positions as global citizens and leaders. Our community works hard to make sure that students are supported in their growth from middle school to college readiness. When PACE students get to college, the academic, personal, and organizational skills they learned in PACE set them apart. PACE also encourages students to forge their own path, allowing them to explore a variety of electives in the 11th and 12th grades. PACE encourages all students to tailor their schedules in the upper grades to reflect their own passions while maintaining a strength of schedule that will give them the most opportunity in the college search process. Additionally we support a variety of independent projects that our students often undertake -- as a part of another organization or just because they are invested in a cause -- which often set them apart from their peers. PACE students also have access to the full range of Long Beach Poly experiences and the majority of our students participate in sports, music, clubs, and various community organizations. Admission to PACE is based upon students’ performance in middle school classes (GPA) and the state test scores from 7th grade.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="7" t="inlineStr">
         <is>
-          <t>Algebra I or Geometry</t>
+          <t>Geometry Acc</t>
         </is>
       </c>
       <c r="B129" s="7" t="inlineStr">
         <is>
-          <t>Geometry or Algebra 2</t>
+          <t>Algebra 2/Trig Accelerated</t>
         </is>
       </c>
       <c r="C129" s="7" t="inlineStr">
         <is>
-          <t>Algebra 2 or Pre-Calculus</t>
+          <t>Pre-Calculus Honors</t>
         </is>
       </c>
       <c r="D129" s="7" t="inlineStr">
         <is>
-          <t>Functions, Pre-Calculus or Intro to Applied Math</t>
+          <t>AP Calculus or AP Statistics</t>
         </is>
       </c>
       <c r="E129" s="5" t="n"/>
@@ -2785,22 +2832,22 @@
     <row r="130">
       <c r="A130" s="7" t="inlineStr">
         <is>
-          <t>Medical Biology 1-2</t>
+          <t>AP Environmental Science</t>
         </is>
       </c>
       <c r="B130" s="7" t="inlineStr">
         <is>
-          <t>Medical Chemistry 1-2</t>
+          <t>Biology 1-2 Acc</t>
         </is>
       </c>
       <c r="C130" s="7" t="inlineStr">
         <is>
-          <t>Anatomy/Physiology Honors</t>
+          <t>Chemistry Honors or AP Biology</t>
         </is>
       </c>
       <c r="D130" s="7" t="inlineStr">
         <is>
-          <t>Government/Economics or AP Government/Economics</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="E130" s="5" t="n"/>
@@ -2809,17 +2856,17 @@
     <row r="131">
       <c r="A131" s="7" t="inlineStr">
         <is>
-          <t>PE or Sport</t>
+          <t>US Government/Economics</t>
         </is>
       </c>
       <c r="B131" s="7" t="inlineStr">
         <is>
-          <t>Modern World History or AP Modern World History</t>
+          <t>AP US History</t>
         </is>
       </c>
       <c r="C131" s="7" t="inlineStr">
         <is>
-          <t>US History or AP US History</t>
+          <t>AP European History</t>
         </is>
       </c>
       <c r="D131" s="7" t="inlineStr">
@@ -2833,7 +2880,7 @@
     <row r="132">
       <c r="A132" s="7" t="inlineStr">
         <is>
-          <t>Health and Career Exploration</t>
+          <t>PE or Sport</t>
         </is>
       </c>
       <c r="B132" s="7" t="inlineStr">
@@ -2843,7 +2890,7 @@
       </c>
       <c r="C132" s="7" t="inlineStr">
         <is>
-          <t>Applied Medical Occupations or Healthcare Analysis</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D132" s="7" t="inlineStr">
@@ -2857,12 +2904,12 @@
     <row r="133">
       <c r="A133" s="7" t="inlineStr">
         <is>
-          <t>Spanish 1-2, French 1-2, German 1-2 or Japanese 1-2</t>
+          <t>Spanish 1-2, French 1-2 German 1-2, Japanese 1-2, or Chinese 1-2</t>
         </is>
       </c>
       <c r="B133" s="7" t="inlineStr">
         <is>
-          <t>Business Technology for Medical Occupations</t>
+          <t>Spanish 3-4, French 3-4, German 3-4, Japanese 3-4 or Chinese 3-4</t>
         </is>
       </c>
       <c r="C133" s="7" t="inlineStr">
@@ -2886,7 +2933,7 @@
       </c>
       <c r="B134" s="7" t="inlineStr">
         <is>
-          <t>Spanish 3-4, French 3-4, German 3-4 or Japanese 3-4</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="C134" s="7" t="inlineStr">
@@ -2957,7 +3004,7 @@
     <row r="140">
       <c r="A140" s="7" t="inlineStr">
         <is>
-          <t>Chemistry, Forensic Science or Physics</t>
+          <t>AP Biology, AP Chemistry or AP Physics</t>
         </is>
       </c>
       <c r="B140" s="5" t="n"/>
@@ -2966,15 +3013,15 @@
       <c r="E140" s="5" t="n"/>
       <c r="F140" s="8" t="inlineStr">
         <is>
-          <t>"When I joined the MEDS pathway I was struggling in school, MEDS gave me a direction. I graduate this June and I take a test to become a Certified Nursing Assistant." 
- - D. Scipio</t>
+          <t>"When I think of all the late nights spent studying for exams or struggling to piece together chemistry concepts, I don’t see it as time I have lostas a PACE student. Instead, I reflect upon the foundational experiences I know have fostered personal growth. As I move towards higher education, I am reminded that my accomplishments during this time mean nothing if I do not carry them forward — harboring both an uncertainty for my own future, yet an overwhelming eagerness to see what I may effectuate. My experience in PACE is not defined by striving towards academic excellence; rather, it is the fundamental perseverance and innate desire to explore, to learn, that have truly shaped my character." 
+ - L. Chou, Class of 2019</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="7" t="inlineStr">
         <is>
-          <t>AP Seminar and AP Research</t>
+          <t>AP Macroeconomics, AP Microeconomics, Journalism, AP Psychology, AP Seminar and AP Research</t>
         </is>
       </c>
       <c r="B141" s="5" t="n"/>
@@ -2983,15 +3030,15 @@
       <c r="E141" s="5" t="n"/>
       <c r="F141" s="8" t="inlineStr">
         <is>
-          <t>"The MEDS pathway has become my friends and family. We work together and play together. We also have the best tools on campus; the Apollo and Anatomage Table made learning fun." 
- - B. Rodriguez</t>
+          <t>"PACE gives independence to pursue a passion but continuously guides you on a structured course outline to keep yourself competitive and prepared forcollege. PACE gave me the confidence and feeling of intelligence and community that I was never given at my middle school. Through group activities and projects with classmates that I have grown to be friends with, I have grown my confidence in myself in ways that could not be done without the rigorous program of PACE. This confidence led me to lead employees at a large corporation and to lead myself into earning my Eagle Scout award. Without completing the hard work necessary to be successful in the PACE curriculum, I would not have the drive that I have now to be a successful leader in the world." 
+ - S. Kennebeck, Class of 2019</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="7" t="inlineStr">
         <is>
-          <t>Spanish 5-6 or AP Spanish</t>
+          <t>Chinese 5-6 or AP Chinese</t>
         </is>
       </c>
       <c r="B142" s="5" t="n"/>
@@ -3011,75 +3058,119 @@
     <row r="143">
       <c r="A143" s="7" t="inlineStr">
         <is>
-          <t>French 5-6 or AP French</t>
+          <t>German 5-6 or AP German</t>
         </is>
       </c>
       <c r="B143" s="5" t="n"/>
-      <c r="C143" s="5" t="n"/>
-      <c r="D143" s="5" t="n"/>
+      <c r="C143" s="7" t="inlineStr">
+        <is>
+          <t>6th/7th Academic GPA</t>
+        </is>
+      </c>
+      <c r="D143" s="7" t="inlineStr">
+        <is>
+          <t>3.7</t>
+        </is>
+      </c>
       <c r="E143" s="5" t="n"/>
       <c r="F143" s="8" t="inlineStr">
         <is>
-          <t>"Comprised of students wishing to pursue a career in the medical and para medical fields, encouraged and enlightened by teachers sharing that same passion, andsupported by an administration and community leaders lighting their way, the MEDS academy proudly demonstrates the future of our healthcare system." 
- - E. Sanches</t>
+          <t>"PACE freshmen work extensively on writing and reading beyond the text, of course, but we also teach them about compassion, the human psyche, andsometimes social justice. Ultimately, I believe we teach kids about time management, team work, self reflection, and an inherent drive to succeed. These are mostly soft skills but they are absolutely necessary not only in the workplace but in everyday life." 
+ - Ms. Floto, 9th Grade English</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="7" t="inlineStr">
         <is>
-          <t>German 5-6 or AP German</t>
+          <t>Japanese 5-6 or AP Japanese</t>
         </is>
       </c>
       <c r="B144" s="5" t="n"/>
-      <c r="C144" s="5" t="n"/>
-      <c r="D144" s="5" t="n"/>
+      <c r="C144" s="7" t="inlineStr">
+        <is>
+          <t>Min. ELA SBAC Score</t>
+        </is>
+      </c>
+      <c r="D144" s="7" t="inlineStr">
+        <is>
+          <t>2550</t>
+        </is>
+      </c>
       <c r="E144" s="5" t="n"/>
       <c r="F144" s="8" t="inlineStr">
         <is>
-          <t>"The MEDS pathway allows students the opportunity to become introduced to careers in the medical field, and exposes them to terminology and skills that will be usefulin their future career choices. Through their course of study, students develop a better understanding of mental and physical health that will be needed in todays very competitive medical careers." 
- - J. Napalan</t>
+          <t>"The PACE program embodies academic excellence, intellectual curiosity, and personal dedication to growth, improvement, and empowerment. Its rigorous curriculum challenges students to move beyond the classroom walls and explore new ideas, generate innovative strategies or solutions, and investigate prior claims to determine veracity and applicability within contemporary settings. PACE aims to prepare students for high-stakes careers by offering unique internships, partnerships with biomedical and engineering programs, and international exposure to arts, culture, and literacy." 
+ - Ms. Schol, 10th Grade English</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="7" t="inlineStr">
         <is>
-          <t>Japanese 5-6 or AP Japanese</t>
+          <t>French 5-6 or AP French</t>
         </is>
       </c>
       <c r="B145" s="5" t="n"/>
-      <c r="C145" s="5" t="n"/>
-      <c r="D145" s="5" t="n"/>
+      <c r="C145" s="7" t="inlineStr">
+        <is>
+          <t>Math Level</t>
+        </is>
+      </c>
+      <c r="D145" s="7" t="inlineStr">
+        <is>
+          <t>Algebra</t>
+        </is>
+      </c>
       <c r="E145" s="5" t="n"/>
       <c r="F145" s="9" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="7" t="inlineStr">
         <is>
-          <t>Drawing and Painting</t>
+          <t>Spanish 5-6 or AP Spanish</t>
         </is>
       </c>
       <c r="B146" s="5" t="n"/>
-      <c r="C146" s="5" t="n"/>
-      <c r="D146" s="5" t="n"/>
+      <c r="C146" s="7" t="inlineStr">
+        <is>
+          <t>Resident Priority</t>
+        </is>
+      </c>
+      <c r="D146" s="7" t="inlineStr">
+        <is>
+          <t>Equal</t>
+        </is>
+      </c>
       <c r="E146" s="5" t="n"/>
       <c r="F146" s="9" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="7" t="inlineStr">
         <is>
-          <t>Band, Theater, Dance, Orchestra, Chorus</t>
+          <t>Intro to Design or Graphic Design</t>
         </is>
       </c>
       <c r="B147" s="5" t="n"/>
-      <c r="C147" s="5" t="n"/>
-      <c r="D147" s="5" t="n"/>
+      <c r="C147" s="7" t="inlineStr">
+        <is>
+          <t>Final Selection Method</t>
+        </is>
+      </c>
+      <c r="D147" s="7" t="inlineStr">
+        <is>
+          <t>High to Low GPA</t>
+        </is>
+      </c>
       <c r="E147" s="5" t="n"/>
       <c r="F147" s="9" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="5" t="n"/>
+      <c r="A148" s="7" t="inlineStr">
+        <is>
+          <t>Band, Theater, Dance, Orchestra, Chorus</t>
+        </is>
+      </c>
       <c r="B148" s="5" t="n"/>
       <c r="C148" s="5" t="n"/>
       <c r="D148" s="5" t="n"/>
@@ -3102,15 +3193,4140 @@
       <c r="E150" s="10" t="n"/>
       <c r="F150" s="11" t="n"/>
     </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>PACRIM</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n"/>
+      <c r="C151" s="2" t="n"/>
+      <c r="D151" s="2" t="n"/>
+      <c r="E151" s="2" t="n"/>
+      <c r="F151" s="3" t="n"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="inlineStr">
+        <is>
+          <t>Grade 9</t>
+        </is>
+      </c>
+      <c r="B152" s="4" t="inlineStr">
+        <is>
+          <t>Grade 10</t>
+        </is>
+      </c>
+      <c r="C152" s="4" t="inlineStr">
+        <is>
+          <t>Grade 11</t>
+        </is>
+      </c>
+      <c r="D152" s="4" t="inlineStr">
+        <is>
+          <t>Grade 12</t>
+        </is>
+      </c>
+      <c r="E152" s="5" t="n"/>
+      <c r="F152" s="6" t="inlineStr">
+        <is>
+          <t>Program Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="inlineStr">
+        <is>
+          <t>English 1-2 or English 1-2 Acc</t>
+        </is>
+      </c>
+      <c r="B153" s="7" t="inlineStr">
+        <is>
+          <t>English 3-4 or English 3-4 Acc</t>
+        </is>
+      </c>
+      <c r="C153" s="7" t="inlineStr">
+        <is>
+          <t>English 5-6, or English 5-6 Honors</t>
+        </is>
+      </c>
+      <c r="D153" s="7" t="inlineStr">
+        <is>
+          <t>CSU Expository Reading and Writing</t>
+        </is>
+      </c>
+      <c r="E153" s="5" t="n"/>
+      <c r="F153" s="8" t="inlineStr">
+        <is>
+          <t>The Pacific Rim Academy, founded in 1989, is a California Partnership Academy and recipient of the state's Distinguished Academy award in 2018. With a focus on business, marketing, international trade, and the hospitality industry, Pac Rim offers its students an alternative to the traditional academic curriculum, providing real-life opportunities (mentorships, internships, simulated competitions, visits to industry, and educational and career-related field trips) in place of the accelerated/AP curriculum that many programs offer. With an industry advisory board that helps direct the curriculum and offerings each year, Pac Rim empowers students. The Pac Rim academy is a smaller academy, admitting only 60-70 students to better focus the academy's resources.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="7" t="inlineStr">
+        <is>
+          <t>Algebra I or Geometry</t>
+        </is>
+      </c>
+      <c r="B154" s="7" t="inlineStr">
+        <is>
+          <t>Geometry or Algebra 2</t>
+        </is>
+      </c>
+      <c r="C154" s="7" t="inlineStr">
+        <is>
+          <t>Algebra 2 or Pre-calculus</t>
+        </is>
+      </c>
+      <c r="D154" s="7" t="inlineStr">
+        <is>
+          <t>Functions/Statistics/Trig</t>
+        </is>
+      </c>
+      <c r="E154" s="5" t="n"/>
+      <c r="F154" s="9" t="n"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="7" t="inlineStr">
+        <is>
+          <t>Biology</t>
+        </is>
+      </c>
+      <c r="B155" s="7" t="inlineStr">
+        <is>
+          <t>Lab Earth</t>
+        </is>
+      </c>
+      <c r="C155" s="7" t="inlineStr">
+        <is>
+          <t>Physics</t>
+        </is>
+      </c>
+      <c r="D155" s="7" t="inlineStr">
+        <is>
+          <t>Government/Economics or AP Government/Economics</t>
+        </is>
+      </c>
+      <c r="E155" s="5" t="n"/>
+      <c r="F155" s="9" t="n"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="7" t="inlineStr">
+        <is>
+          <t>Graphic Design and Printmaking 1-2</t>
+        </is>
+      </c>
+      <c r="B156" s="7" t="inlineStr">
+        <is>
+          <t>Modern World History</t>
+        </is>
+      </c>
+      <c r="C156" s="7" t="inlineStr">
+        <is>
+          <t>US History and AP Psychology</t>
+        </is>
+      </c>
+      <c r="D156" s="7" t="inlineStr">
+        <is>
+          <t>Senior Capstone Business</t>
+        </is>
+      </c>
+      <c r="E156" s="5" t="n"/>
+      <c r="F156" s="9" t="n"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="7" t="inlineStr">
+        <is>
+          <t>PE or Sport</t>
+        </is>
+      </c>
+      <c r="B157" s="7" t="inlineStr">
+        <is>
+          <t>PE or Sport</t>
+        </is>
+      </c>
+      <c r="C157" s="7" t="inlineStr">
+        <is>
+          <t>International Business</t>
+        </is>
+      </c>
+      <c r="D157" s="7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="E157" s="5" t="n"/>
+      <c r="F157" s="9" t="n"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="7" t="inlineStr">
+        <is>
+          <t>Introduction to Entrepreneurship</t>
+        </is>
+      </c>
+      <c r="B158" s="7" t="inlineStr">
+        <is>
+          <t>International Marketing</t>
+        </is>
+      </c>
+      <c r="C158" s="7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D158" s="7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="E158" s="5" t="n"/>
+      <c r="F158" s="9" t="n"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="7" t="inlineStr">
+        <is>
+          <t>Spanish 1-2, French 1-2, German 1-2 or Japanese 1-2</t>
+        </is>
+      </c>
+      <c r="B159" s="7" t="inlineStr">
+        <is>
+          <t>Spanish 3-4, French 3-4, German 3-4 or Japanese 1-2</t>
+        </is>
+      </c>
+      <c r="C159" s="7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D159" s="7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="E159" s="5" t="n"/>
+      <c r="F159" s="9" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="5" t="n"/>
+      <c r="B160" s="5" t="n"/>
+      <c r="C160" s="5" t="n"/>
+      <c r="D160" s="5" t="n"/>
+      <c r="E160" s="5" t="n"/>
+      <c r="F160" s="9" t="n"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="5" t="n"/>
+      <c r="B161" s="5" t="n"/>
+      <c r="C161" s="5" t="n"/>
+      <c r="D161" s="5" t="n"/>
+      <c r="E161" s="5" t="n"/>
+      <c r="F161" s="9" t="n"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="5" t="n"/>
+      <c r="B162" s="5" t="n"/>
+      <c r="C162" s="5" t="n"/>
+      <c r="D162" s="5" t="n"/>
+      <c r="E162" s="5" t="n"/>
+      <c r="F162" s="9" t="n"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="5" t="n"/>
+      <c r="B163" s="5" t="n"/>
+      <c r="C163" s="5" t="n"/>
+      <c r="D163" s="5" t="n"/>
+      <c r="E163" s="5" t="n"/>
+      <c r="F163" s="9" t="n"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="inlineStr">
+        <is>
+          <t>Popular Elective Options</t>
+        </is>
+      </c>
+      <c r="B164" s="5" t="n"/>
+      <c r="C164" s="4" t="inlineStr">
+        <is>
+          <t>Link to 1-2 Minute Video</t>
+        </is>
+      </c>
+      <c r="D164" s="5" t="n"/>
+      <c r="E164" s="5" t="n"/>
+      <c r="F164" s="6" t="inlineStr">
+        <is>
+          <t>Two Student Quotes</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="7" t="inlineStr">
+        <is>
+          <t>Spanish 5-6 or AP Spanish</t>
+        </is>
+      </c>
+      <c r="B165" s="5" t="n"/>
+      <c r="C165" s="5" t="inlineStr"/>
+      <c r="D165" s="5" t="n"/>
+      <c r="E165" s="5" t="n"/>
+      <c r="F165" s="8" t="inlineStr">
+        <is>
+          <t>"The Pac Rim Academy is truly special. You take business oriented classes and take part in many unique experiences. You become a family with the rest of the small academy and there’s nothing else like it." 
+ - U. Godoy, Class of 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="7" t="inlineStr">
+        <is>
+          <t>French 5-6 or AP French</t>
+        </is>
+      </c>
+      <c r="B166" s="5" t="n"/>
+      <c r="C166" s="5" t="n"/>
+      <c r="D166" s="5" t="n"/>
+      <c r="E166" s="5" t="n"/>
+      <c r="F166" s="8" t="inlineStr">
+        <is>
+          <t>"Pac Rim is the type of program that you would want to be in at Poly.  Not only does it teach you about the business world, but you also become a family in the end." 
+ - I. Giles, Class of 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="7" t="inlineStr">
+        <is>
+          <t>German 5-6 or AP German</t>
+        </is>
+      </c>
+      <c r="B167" s="5" t="n"/>
+      <c r="C167" s="4" t="inlineStr">
+        <is>
+          <t>Entrance Criteria</t>
+        </is>
+      </c>
+      <c r="D167" s="5" t="n"/>
+      <c r="E167" s="5" t="n"/>
+      <c r="F167" s="6" t="inlineStr">
+        <is>
+          <t>Two Staff Quotes</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="7" t="inlineStr">
+        <is>
+          <t>Japanese 5-6 or AP Japanese</t>
+        </is>
+      </c>
+      <c r="B168" s="5" t="n"/>
+      <c r="C168" s="5" t="n"/>
+      <c r="D168" s="5" t="n"/>
+      <c r="E168" s="5" t="n"/>
+      <c r="F168" s="8" t="inlineStr">
+        <is>
+          <t>"Our Pac Rim Academy is the hidden gem at Poly! We may be small, but we are mighty as we provide more real world, hands-on business experience to our students than any other academy." 
+ - L. Saito-Waddles, English teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="7" t="inlineStr">
+        <is>
+          <t>Drawing and Painting</t>
+        </is>
+      </c>
+      <c r="B169" s="5" t="n"/>
+      <c r="C169" s="5" t="n"/>
+      <c r="D169" s="5" t="n"/>
+      <c r="E169" s="5" t="n"/>
+      <c r="F169" s="8" t="inlineStr">
+        <is>
+          <t>"Entering its fourth decade, the Pacific Rim Academy is thriving on a strong philosophy of practical applications, a solid teaching base, and industry partnerswho participate in determining the direction of the academy and its curriculum to insure relevance in the real world." 
+ - H. Pieczenik, international Marketing/Modern World History teacher</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="7" t="inlineStr">
+        <is>
+          <t>Band, Theater, Dance, Orchestra, Chorus</t>
+        </is>
+      </c>
+      <c r="B170" s="5" t="n"/>
+      <c r="C170" s="5" t="n"/>
+      <c r="D170" s="5" t="n"/>
+      <c r="E170" s="5" t="n"/>
+      <c r="F170" s="9" t="n"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="5" t="n"/>
+      <c r="B171" s="5" t="n"/>
+      <c r="C171" s="5" t="n"/>
+      <c r="D171" s="5" t="n"/>
+      <c r="E171" s="5" t="n"/>
+      <c r="F171" s="9" t="n"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="5" t="n"/>
+      <c r="B172" s="5" t="n"/>
+      <c r="C172" s="5" t="n"/>
+      <c r="D172" s="5" t="n"/>
+      <c r="E172" s="5" t="n"/>
+      <c r="F172" s="9" t="n"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="5" t="n"/>
+      <c r="B173" s="5" t="n"/>
+      <c r="C173" s="5" t="n"/>
+      <c r="D173" s="5" t="n"/>
+      <c r="E173" s="5" t="n"/>
+      <c r="F173" s="9" t="n"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="5" t="n"/>
+      <c r="B174" s="5" t="n"/>
+      <c r="C174" s="5" t="n"/>
+      <c r="D174" s="5" t="n"/>
+      <c r="E174" s="5" t="n"/>
+      <c r="F174" s="9" t="n"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="10" t="n"/>
+      <c r="B175" s="10" t="n"/>
+      <c r="C175" s="10" t="n"/>
+      <c r="D175" s="10" t="n"/>
+      <c r="E175" s="10" t="n"/>
+      <c r="F175" s="11" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="A76:F76"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A151:F151"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H131"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="12" t="inlineStr">
+        <is>
+          <t>Club Name</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="inlineStr">
+        <is>
+          <t>Prominent club? (Choose up to 6 clubs to be placed in a Top Clubs category at the top of the clubs page)</t>
+        </is>
+      </c>
+      <c r="C1" s="12" t="inlineStr">
+        <is>
+          <t>Description (1-2 sentences) for top clubs</t>
+        </is>
+      </c>
+      <c r="D1" s="12" t="inlineStr">
+        <is>
+          <t>Category (Arts, Cultural, Volunteering &amp; Advocacy, Social, STEM, or Other)</t>
+        </is>
+      </c>
+      <c r="E1" s="12" t="inlineStr">
+        <is>
+          <t>Field Trips</t>
+        </is>
+      </c>
+      <c r="F1" s="12" t="inlineStr">
+        <is>
+          <t>Scholarships</t>
+        </is>
+      </c>
+      <c r="G1" s="12" t="inlineStr">
+        <is>
+          <t>Volunteer Opportunities</t>
+        </is>
+      </c>
+      <c r="H1" s="13" t="inlineStr">
+        <is>
+          <t>Does the club participate in competitions?</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>8 count</t>
+        </is>
+      </c>
+      <c r="B2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="inlineStr"/>
+      <c r="D2" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="inlineStr">
+        <is>
+          <t>Art Club</t>
+        </is>
+      </c>
+      <c r="B3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="inlineStr"/>
+      <c r="D3" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="inlineStr">
+        <is>
+          <t>Drama Club</t>
+        </is>
+      </c>
+      <c r="B4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="inlineStr"/>
+      <c r="D4" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="inlineStr">
+        <is>
+          <t>Film Production Club</t>
+        </is>
+      </c>
+      <c r="B5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="inlineStr"/>
+      <c r="D5" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="inlineStr">
+        <is>
+          <t>Fluting it up!</t>
+        </is>
+      </c>
+      <c r="B6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="inlineStr"/>
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="inlineStr">
+        <is>
+          <t>H2M</t>
+        </is>
+      </c>
+      <c r="B7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="inlineStr"/>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="inlineStr">
+        <is>
+          <t>Hip Hop Club</t>
+        </is>
+      </c>
+      <c r="B8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14" t="inlineStr"/>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="inlineStr">
+        <is>
+          <t>KDI</t>
+        </is>
+      </c>
+      <c r="B9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="inlineStr"/>
+      <c r="D9" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="inlineStr">
+        <is>
+          <t>Long Beach Poly Drill Team (Prep Club)</t>
+        </is>
+      </c>
+      <c r="B10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="inlineStr"/>
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="inlineStr">
+        <is>
+          <t>Royal A</t>
+        </is>
+      </c>
+      <c r="B11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14" t="inlineStr"/>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="inlineStr">
+        <is>
+          <t>Sets for Vets</t>
+        </is>
+      </c>
+      <c r="B12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14" t="inlineStr"/>
+      <c r="D12" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="inlineStr">
+        <is>
+          <t>Stage Crew Club</t>
+        </is>
+      </c>
+      <c r="B13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14" t="inlineStr"/>
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="inlineStr">
+        <is>
+          <t>The Guard</t>
+        </is>
+      </c>
+      <c r="B14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14" t="inlineStr"/>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="inlineStr">
+        <is>
+          <t>Video Club</t>
+        </is>
+      </c>
+      <c r="B15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14" t="inlineStr"/>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="inlineStr">
+        <is>
+          <t>Youth Theatre Outreach</t>
+        </is>
+      </c>
+      <c r="B16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="E16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="16" t="inlineStr">
+        <is>
+          <t>Chinese Club</t>
+        </is>
+      </c>
+      <c r="B17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16" t="inlineStr"/>
+      <c r="D17" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="16" t="inlineStr">
+        <is>
+          <t>Cross Cultures Club</t>
+        </is>
+      </c>
+      <c r="B18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16" t="inlineStr"/>
+      <c r="D18" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>Cultural Diversity Club</t>
+        </is>
+      </c>
+      <c r="B19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16" t="inlineStr"/>
+      <c r="D19" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>French Club</t>
+        </is>
+      </c>
+      <c r="B20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16" t="inlineStr"/>
+      <c r="D20" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="16" t="inlineStr">
+        <is>
+          <t>German Club</t>
+        </is>
+      </c>
+      <c r="B21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16" t="inlineStr"/>
+      <c r="D21" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="16" t="inlineStr">
+        <is>
+          <t>Japanese Club</t>
+        </is>
+      </c>
+      <c r="B22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16" t="inlineStr"/>
+      <c r="D22" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="inlineStr">
+        <is>
+          <t>Jewish Culture Club</t>
+        </is>
+      </c>
+      <c r="B23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16" t="inlineStr"/>
+      <c r="D23" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="16" t="inlineStr">
+        <is>
+          <t>Khmer Club</t>
+        </is>
+      </c>
+      <c r="B24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16" t="inlineStr"/>
+      <c r="D24" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="16" t="inlineStr">
+        <is>
+          <t>L.E.I.A</t>
+        </is>
+      </c>
+      <c r="B25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16" t="inlineStr"/>
+      <c r="D25" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>La Onda CLub</t>
+        </is>
+      </c>
+      <c r="B26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16" t="inlineStr"/>
+      <c r="D26" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="16" t="inlineStr">
+        <is>
+          <t>Seoul of K-pop</t>
+        </is>
+      </c>
+      <c r="B27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16" t="inlineStr"/>
+      <c r="D27" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="16" t="inlineStr">
+        <is>
+          <t>Spanish Club</t>
+        </is>
+      </c>
+      <c r="B28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16" t="inlineStr"/>
+      <c r="D28" s="16" t="inlineStr">
+        <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="E28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="18" t="inlineStr">
+        <is>
+          <t>Beach Clean-up Club</t>
+        </is>
+      </c>
+      <c r="B29" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="18" t="inlineStr"/>
+      <c r="D29" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E29" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="18" t="inlineStr">
+        <is>
+          <t>BEE Club (Black Educated and Empowered)</t>
+        </is>
+      </c>
+      <c r="B30" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="18" t="inlineStr"/>
+      <c r="D30" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E30" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="18" t="inlineStr">
+        <is>
+          <t>Best Buddies</t>
+        </is>
+      </c>
+      <c r="B31" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="18" t="inlineStr"/>
+      <c r="D31" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E31" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="18" t="inlineStr">
+        <is>
+          <t>Black Student Union</t>
+        </is>
+      </c>
+      <c r="B32" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18" t="inlineStr"/>
+      <c r="D32" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E32" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="18" t="inlineStr">
+        <is>
+          <t>Breast Cancer Club</t>
+        </is>
+      </c>
+      <c r="B33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18" t="inlineStr"/>
+      <c r="D33" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="18" t="inlineStr">
+        <is>
+          <t>California Scholarship Federation</t>
+        </is>
+      </c>
+      <c r="B34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="18" t="inlineStr"/>
+      <c r="D34" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="18" t="inlineStr">
+        <is>
+          <t>Californians for Justice</t>
+        </is>
+      </c>
+      <c r="B35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="18" t="inlineStr"/>
+      <c r="D35" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>Community Action Team</t>
+        </is>
+      </c>
+      <c r="B36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="18" t="inlineStr"/>
+      <c r="D36" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="18" t="inlineStr">
+        <is>
+          <t>Female Leadership Academy</t>
+        </is>
+      </c>
+      <c r="B37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18" t="inlineStr"/>
+      <c r="D37" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="18" t="inlineStr">
+        <is>
+          <t>Gender Equality Club</t>
+        </is>
+      </c>
+      <c r="B38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="18" t="inlineStr"/>
+      <c r="D38" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="18" t="inlineStr">
+        <is>
+          <t>Giving Back</t>
+        </is>
+      </c>
+      <c r="B39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="18" t="inlineStr"/>
+      <c r="D39" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="18" t="inlineStr">
+        <is>
+          <t>Global Sisterhood</t>
+        </is>
+      </c>
+      <c r="B40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="18" t="inlineStr"/>
+      <c r="D40" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="18" t="inlineStr">
+        <is>
+          <t>GSA (Gender-Sexualities Alliance)</t>
+        </is>
+      </c>
+      <c r="B41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="18" t="inlineStr"/>
+      <c r="D41" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="18" t="inlineStr">
+        <is>
+          <t>H.E.R.O Community Volunteer's Club</t>
+        </is>
+      </c>
+      <c r="B42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="18" t="inlineStr"/>
+      <c r="D42" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="18" t="inlineStr">
+        <is>
+          <t>Help 4 Homeless Club</t>
+        </is>
+      </c>
+      <c r="B43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="18" t="inlineStr"/>
+      <c r="D43" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="18" t="inlineStr">
+        <is>
+          <t>Kappa Knew Club</t>
+        </is>
+      </c>
+      <c r="B44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="18" t="inlineStr"/>
+      <c r="D44" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="18" t="inlineStr">
+        <is>
+          <t>Key Club</t>
+        </is>
+      </c>
+      <c r="B45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="18" t="inlineStr"/>
+      <c r="D45" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="18" t="inlineStr">
+        <is>
+          <t>LB Poly SAAD</t>
+        </is>
+      </c>
+      <c r="B46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="18" t="inlineStr"/>
+      <c r="D46" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="18" t="inlineStr">
+        <is>
+          <t>Leo Club</t>
+        </is>
+      </c>
+      <c r="B47" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="18" t="inlineStr"/>
+      <c r="D47" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E47" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="18" t="inlineStr">
+        <is>
+          <t>Link Crew</t>
+        </is>
+      </c>
+      <c r="B48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="18" t="inlineStr"/>
+      <c r="D48" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="18" t="inlineStr">
+        <is>
+          <t>Little Jackrabbits</t>
+        </is>
+      </c>
+      <c r="B49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="18" t="inlineStr"/>
+      <c r="D49" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="18" t="inlineStr">
+        <is>
+          <t>Long Beach Poly Green Club</t>
+        </is>
+      </c>
+      <c r="B50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="18" t="inlineStr"/>
+      <c r="D50" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="18" t="inlineStr">
+        <is>
+          <t>Long Beach Schools Volunteer Club</t>
+        </is>
+      </c>
+      <c r="B51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="18" t="inlineStr"/>
+      <c r="D51" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="18" t="inlineStr">
+        <is>
+          <t>Male Academy Leadership Club</t>
+        </is>
+      </c>
+      <c r="B52" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="18" t="inlineStr"/>
+      <c r="D52" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E52" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="18" t="inlineStr">
+        <is>
+          <t>Music Memories</t>
+        </is>
+      </c>
+      <c r="B53" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="18" t="inlineStr"/>
+      <c r="D53" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E53" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="18" t="inlineStr">
+        <is>
+          <t>Poly Pride</t>
+        </is>
+      </c>
+      <c r="B54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="18" t="inlineStr"/>
+      <c r="D54" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="18" t="inlineStr">
+        <is>
+          <t>Red Cross Club</t>
+        </is>
+      </c>
+      <c r="B55" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="18" t="inlineStr"/>
+      <c r="D55" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E55" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="18" t="inlineStr">
+        <is>
+          <t>Ronald McDonald Club</t>
+        </is>
+      </c>
+      <c r="B56" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="18" t="inlineStr"/>
+      <c r="D56" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E56" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="18" t="inlineStr">
+        <is>
+          <t>Sexual Awareness Club</t>
+        </is>
+      </c>
+      <c r="B57" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="18" t="inlineStr"/>
+      <c r="D57" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E57" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="18" t="inlineStr">
+        <is>
+          <t>Sport it Forward</t>
+        </is>
+      </c>
+      <c r="B58" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" s="18" t="inlineStr"/>
+      <c r="D58" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E58" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="18" t="inlineStr">
+        <is>
+          <t>Students for the American Disability Act (SADA)</t>
+        </is>
+      </c>
+      <c r="B59" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="18" t="inlineStr"/>
+      <c r="D59" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E59" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="18" t="inlineStr">
+        <is>
+          <t>Sustainability Coalition</t>
+        </is>
+      </c>
+      <c r="B60" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="18" t="inlineStr"/>
+      <c r="D60" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E60" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="18" t="inlineStr">
+        <is>
+          <t>Taking Action</t>
+        </is>
+      </c>
+      <c r="B61" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="18" t="inlineStr"/>
+      <c r="D61" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E61" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="18" t="inlineStr">
+        <is>
+          <t>Team Pink+</t>
+        </is>
+      </c>
+      <c r="B62" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="18" t="inlineStr"/>
+      <c r="D62" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E62" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="18" t="inlineStr">
+        <is>
+          <t>UNICEF</t>
+        </is>
+      </c>
+      <c r="B63" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" s="18" t="inlineStr"/>
+      <c r="D63" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E63" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="18" t="inlineStr">
+        <is>
+          <t>We Care for You-th</t>
+        </is>
+      </c>
+      <c r="B64" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" s="18" t="inlineStr"/>
+      <c r="D64" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E64" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="18" t="inlineStr">
+        <is>
+          <t>Yellow Ribbon/Anti-Human Trafficking Club</t>
+        </is>
+      </c>
+      <c r="B65" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="18" t="inlineStr"/>
+      <c r="D65" s="18" t="inlineStr">
+        <is>
+          <t>Volunteering and Advocacy</t>
+        </is>
+      </c>
+      <c r="E65" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="20" t="inlineStr">
+        <is>
+          <t>Anime Club</t>
+        </is>
+      </c>
+      <c r="B66" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="20" t="inlineStr"/>
+      <c r="D66" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E66" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="20" t="inlineStr">
+        <is>
+          <t>Bagel Club</t>
+        </is>
+      </c>
+      <c r="B67" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" s="20" t="inlineStr"/>
+      <c r="D67" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E67" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="20" t="inlineStr">
+        <is>
+          <t>Bonfire</t>
+        </is>
+      </c>
+      <c r="B68" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" s="20" t="inlineStr"/>
+      <c r="D68" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E68" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="20" t="inlineStr">
+        <is>
+          <t>C to T Book Club</t>
+        </is>
+      </c>
+      <c r="B69" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="20" t="inlineStr"/>
+      <c r="D69" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E69" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="20" t="inlineStr">
+        <is>
+          <t>Chess Club</t>
+        </is>
+      </c>
+      <c r="B70" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="20" t="inlineStr"/>
+      <c r="D70" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E70" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="20" t="inlineStr">
+        <is>
+          <t>Choir Club</t>
+        </is>
+      </c>
+      <c r="B71" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="20" t="inlineStr"/>
+      <c r="D71" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E71" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="20" t="inlineStr">
+        <is>
+          <t>Comic Book Club</t>
+        </is>
+      </c>
+      <c r="B72" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="20" t="inlineStr"/>
+      <c r="D72" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E72" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="20" t="inlineStr">
+        <is>
+          <t>Crew Club</t>
+        </is>
+      </c>
+      <c r="B73" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" s="20" t="inlineStr"/>
+      <c r="D73" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E73" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="20" t="inlineStr">
+        <is>
+          <t>Disney</t>
+        </is>
+      </c>
+      <c r="B74" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="20" t="inlineStr"/>
+      <c r="D74" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E74" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="20" t="inlineStr">
+        <is>
+          <t>Here 4 U</t>
+        </is>
+      </c>
+      <c r="B75" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="20" t="inlineStr"/>
+      <c r="D75" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E75" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="20" t="inlineStr">
+        <is>
+          <t>Jackrabbits eSports</t>
+        </is>
+      </c>
+      <c r="B76" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="20" t="inlineStr"/>
+      <c r="D76" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E76" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="20" t="inlineStr">
+        <is>
+          <t>Movie Club</t>
+        </is>
+      </c>
+      <c r="B77" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" s="20" t="inlineStr"/>
+      <c r="D77" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E77" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="20" t="inlineStr">
+        <is>
+          <t>Multi-Fandom Club</t>
+        </is>
+      </c>
+      <c r="B78" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C78" s="20" t="inlineStr"/>
+      <c r="D78" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E78" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="20" t="inlineStr">
+        <is>
+          <t>Ping-Pong club</t>
+        </is>
+      </c>
+      <c r="B79" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C79" s="20" t="inlineStr"/>
+      <c r="D79" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E79" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="20" t="inlineStr">
+        <is>
+          <t>Poly Outdoors</t>
+        </is>
+      </c>
+      <c r="B80" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C80" s="20" t="inlineStr"/>
+      <c r="D80" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E80" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="20" t="inlineStr">
+        <is>
+          <t>Poly Ski and Snowboard Club</t>
+        </is>
+      </c>
+      <c r="B81" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C81" s="20" t="inlineStr"/>
+      <c r="D81" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E81" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="20" t="inlineStr">
+        <is>
+          <t>Poly Soccer Club</t>
+        </is>
+      </c>
+      <c r="B82" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" s="20" t="inlineStr"/>
+      <c r="D82" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E82" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="20" t="inlineStr">
+        <is>
+          <t>Tea Club</t>
+        </is>
+      </c>
+      <c r="B83" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C83" s="20" t="inlineStr"/>
+      <c r="D83" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E83" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="20" t="inlineStr">
+        <is>
+          <t>Video Game Club</t>
+        </is>
+      </c>
+      <c r="B84" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C84" s="20" t="inlineStr"/>
+      <c r="D84" s="20" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="E84" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="22" t="inlineStr">
+        <is>
+          <t>3D Printing &amp; Design Club</t>
+        </is>
+      </c>
+      <c r="B85" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C85" s="22" t="inlineStr"/>
+      <c r="D85" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E85" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="22" t="inlineStr">
+        <is>
+          <t>DIY club</t>
+        </is>
+      </c>
+      <c r="B86" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" s="22" t="inlineStr"/>
+      <c r="D86" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E86" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="22" t="inlineStr">
+        <is>
+          <t>Future Medical Professionals Club</t>
+        </is>
+      </c>
+      <c r="B87" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" s="22" t="inlineStr"/>
+      <c r="D87" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E87" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="22" t="inlineStr">
+        <is>
+          <t>HOSA-future health professionals</t>
+        </is>
+      </c>
+      <c r="B88" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C88" s="22" t="inlineStr"/>
+      <c r="D88" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E88" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G88" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="22" t="inlineStr">
+        <is>
+          <t>LBUSD Health Asset Map Ambassadors</t>
+        </is>
+      </c>
+      <c r="B89" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" s="22" t="inlineStr"/>
+      <c r="D89" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E89" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="22" t="inlineStr">
+        <is>
+          <t>Long Beach Poly Auto</t>
+        </is>
+      </c>
+      <c r="B90" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" s="22" t="inlineStr"/>
+      <c r="D90" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E90" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="22" t="inlineStr">
+        <is>
+          <t>MESA</t>
+        </is>
+      </c>
+      <c r="B91" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" s="22" t="inlineStr"/>
+      <c r="D91" s="22" t="inlineStr">
+        <is>
+          <t>STEM</t>
+        </is>
+      </c>
+      <c r="E91" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="24" t="inlineStr">
+        <is>
+          <t>AVID Club</t>
+        </is>
+      </c>
+      <c r="B92" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" s="24" t="inlineStr"/>
+      <c r="D92" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E92" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="24" t="inlineStr">
+        <is>
+          <t>Awkabella Club</t>
+        </is>
+      </c>
+      <c r="B93" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" s="24" t="inlineStr"/>
+      <c r="D93" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E93" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="24" t="inlineStr">
+        <is>
+          <t>Badminton Club</t>
+        </is>
+      </c>
+      <c r="B94" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C94" s="24" t="inlineStr"/>
+      <c r="D94" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E94" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="24" t="inlineStr">
+        <is>
+          <t>CIC Club</t>
+        </is>
+      </c>
+      <c r="B95" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C95" s="24" t="inlineStr"/>
+      <c r="D95" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E95" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="24" t="inlineStr">
+        <is>
+          <t>Club 319</t>
+        </is>
+      </c>
+      <c r="B96" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C96" s="24" t="inlineStr"/>
+      <c r="D96" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E96" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G96" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="24" t="inlineStr">
+        <is>
+          <t>Cru</t>
+        </is>
+      </c>
+      <c r="B97" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="24" t="inlineStr"/>
+      <c r="D97" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E97" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="24" t="inlineStr">
+        <is>
+          <t>E.P.I.C Catholic Club</t>
+        </is>
+      </c>
+      <c r="B98" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" s="24" t="inlineStr"/>
+      <c r="D98" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E98" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G98" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="24" t="inlineStr">
+        <is>
+          <t>Freshmen Senate</t>
+        </is>
+      </c>
+      <c r="B99" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C99" s="24" t="inlineStr"/>
+      <c r="D99" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E99" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="24" t="inlineStr">
+        <is>
+          <t>Girls Water polo</t>
+        </is>
+      </c>
+      <c r="B100" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" s="24" t="inlineStr"/>
+      <c r="D100" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E100" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="24" t="inlineStr">
+        <is>
+          <t>Jackrabbit Stargazers Astrology Club</t>
+        </is>
+      </c>
+      <c r="B101" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C101" s="24" t="inlineStr"/>
+      <c r="D101" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E101" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="24" t="inlineStr">
+        <is>
+          <t>Journalism Club</t>
+        </is>
+      </c>
+      <c r="B102" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C102" s="24" t="inlineStr"/>
+      <c r="D102" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E102" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="24" t="inlineStr">
+        <is>
+          <t>Junior Reserve Officers Training Corps (JROTC)</t>
+        </is>
+      </c>
+      <c r="B103" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" s="24" t="inlineStr"/>
+      <c r="D103" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E103" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="24" t="inlineStr">
+        <is>
+          <t>Junior Senate</t>
+        </is>
+      </c>
+      <c r="B104" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" s="24" t="inlineStr"/>
+      <c r="D104" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E104" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="24" t="inlineStr">
+        <is>
+          <t>Karate Club</t>
+        </is>
+      </c>
+      <c r="B105" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C105" s="24" t="inlineStr"/>
+      <c r="D105" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E105" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="24" t="inlineStr">
+        <is>
+          <t>Lady Jackrabbits Basketball Club</t>
+        </is>
+      </c>
+      <c r="B106" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C106" s="24" t="inlineStr"/>
+      <c r="D106" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E106" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="24" t="inlineStr">
+        <is>
+          <t>Long Beach Poly Kiva Club</t>
+        </is>
+      </c>
+      <c r="B107" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C107" s="24" t="inlineStr"/>
+      <c r="D107" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E107" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="24" t="inlineStr">
+        <is>
+          <t>Long Beach Poly Volleyball Club</t>
+        </is>
+      </c>
+      <c r="B108" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C108" s="24" t="inlineStr"/>
+      <c r="D108" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E108" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="24" t="inlineStr">
+        <is>
+          <t>Meds Academy</t>
+        </is>
+      </c>
+      <c r="B109" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" s="24" t="inlineStr"/>
+      <c r="D109" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E109" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="24" t="inlineStr">
+        <is>
+          <t>Mock Trial Club</t>
+        </is>
+      </c>
+      <c r="B110" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C110" s="24" t="inlineStr"/>
+      <c r="D110" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E110" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="24" t="inlineStr">
+        <is>
+          <t>Model United Nations</t>
+        </is>
+      </c>
+      <c r="B111" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" s="24" t="inlineStr"/>
+      <c r="D111" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E111" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H111" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="24" t="inlineStr">
+        <is>
+          <t>PAAL student council (PSC)</t>
+        </is>
+      </c>
+      <c r="B112" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" s="24" t="inlineStr"/>
+      <c r="D112" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E112" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="24" t="inlineStr">
+        <is>
+          <t>PACE club</t>
+        </is>
+      </c>
+      <c r="B113" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C113" s="24" t="inlineStr"/>
+      <c r="D113" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E113" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="24" t="inlineStr">
+        <is>
+          <t>Pacific Rim Club</t>
+        </is>
+      </c>
+      <c r="B114" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C114" s="24" t="inlineStr"/>
+      <c r="D114" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E114" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="24" t="inlineStr">
+        <is>
+          <t>PArts Club</t>
+        </is>
+      </c>
+      <c r="B115" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="24" t="inlineStr"/>
+      <c r="D115" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E115" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="24" t="inlineStr">
+        <is>
+          <t>Poly Aquatics Club</t>
+        </is>
+      </c>
+      <c r="B116" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C116" s="24" t="inlineStr"/>
+      <c r="D116" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E116" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="24" t="inlineStr">
+        <is>
+          <t>Poly North</t>
+        </is>
+      </c>
+      <c r="B117" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C117" s="24" t="inlineStr"/>
+      <c r="D117" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E117" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="24" t="inlineStr">
+        <is>
+          <t>Poly Rabbotics</t>
+        </is>
+      </c>
+      <c r="B118" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C118" s="24" t="inlineStr"/>
+      <c r="D118" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E118" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="24" t="inlineStr">
+        <is>
+          <t>Polyesters</t>
+        </is>
+      </c>
+      <c r="B119" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C119" s="24" t="inlineStr"/>
+      <c r="D119" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E119" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="24" t="inlineStr">
+        <is>
+          <t>Safe Space</t>
+        </is>
+      </c>
+      <c r="B120" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C120" s="24" t="inlineStr"/>
+      <c r="D120" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E120" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="24" t="inlineStr">
+        <is>
+          <t>Senior Senate</t>
+        </is>
+      </c>
+      <c r="B121" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C121" s="24" t="inlineStr"/>
+      <c r="D121" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E121" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G121" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="24" t="inlineStr">
+        <is>
+          <t>Softball Club</t>
+        </is>
+      </c>
+      <c r="B122" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C122" s="24" t="inlineStr"/>
+      <c r="D122" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E122" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G122" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="24" t="inlineStr">
+        <is>
+          <t>Sophomore Senate</t>
+        </is>
+      </c>
+      <c r="B123" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" s="24" t="inlineStr"/>
+      <c r="D123" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E123" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="24" t="inlineStr">
+        <is>
+          <t>Speech and Debate</t>
+        </is>
+      </c>
+      <c r="B124" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C124" s="24" t="inlineStr"/>
+      <c r="D124" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E124" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="24" t="inlineStr">
+        <is>
+          <t>Stats Club</t>
+        </is>
+      </c>
+      <c r="B125" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C125" s="24" t="inlineStr"/>
+      <c r="D125" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E125" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="24" t="inlineStr">
+        <is>
+          <t>Swim Club</t>
+        </is>
+      </c>
+      <c r="B126" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="24" t="inlineStr"/>
+      <c r="D126" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E126" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="24" t="inlineStr">
+        <is>
+          <t>The Poly bible club</t>
+        </is>
+      </c>
+      <c r="B127" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C127" s="24" t="inlineStr"/>
+      <c r="D127" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E127" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="24" t="inlineStr">
+        <is>
+          <t>The Solution</t>
+        </is>
+      </c>
+      <c r="B128" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C128" s="24" t="inlineStr"/>
+      <c r="D128" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E128" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="24" t="inlineStr">
+        <is>
+          <t>Track Rabbits</t>
+        </is>
+      </c>
+      <c r="B129" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C129" s="24" t="inlineStr"/>
+      <c r="D129" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E129" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="24" t="inlineStr">
+        <is>
+          <t>Long Beach Poly Natural Hair Club</t>
+        </is>
+      </c>
+      <c r="B130" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C130" s="24" t="inlineStr"/>
+      <c r="D130" s="24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E130" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G130" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H130" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131"/>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="26" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="B1" s="26" t="inlineStr">
+        <is>
+          <t>Gender (Boys, Girls, Coed)</t>
+        </is>
+      </c>
+      <c r="C1" s="26" t="inlineStr">
+        <is>
+          <t>CIF -- years gone to playoffs (since 2000)</t>
+        </is>
+      </c>
+      <c r="D1" s="26" t="inlineStr">
+        <is>
+          <t>Moore League -- years won (since 2000)</t>
+        </is>
+      </c>
+      <c r="E1" s="26" t="inlineStr">
+        <is>
+          <t>Other tournaments/awards</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>